--- a/data/trans_orig/P79$alquiler_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79$alquiler_2023-Provincia-trans_orig.xlsx
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14416</v>
+        <v>14336</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.009495817483259438</v>
+        <v>0.00949581748325944</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04664755742552128</v>
+        <v>0.04639057275869832</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14676</v>
+        <v>12324</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00474232827847294</v>
+        <v>0.004742328278472939</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02371672080486628</v>
+        <v>0.01991560713685911</v>
       </c>
     </row>
     <row r="5">
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7061</v>
+        <v>7443</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.006326846353093381</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02279361494237058</v>
+        <v>0.02402876960941052</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2555</v>
+        <v>2954</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.001617097451102582</v>
+        <v>0.001617097451102583</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008268551494984093</v>
+        <v>0.009558544808204545</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1034,19 +1034,19 @@
         <v>2460</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6853</v>
+        <v>7406</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.003974739708057983</v>
+        <v>0.003974739708057982</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0008032745041947291</v>
+        <v>0.0008250101981666259</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01107464064236315</v>
+        <v>0.0119685044374138</v>
       </c>
     </row>
     <row r="10">
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4206</v>
+        <v>4036</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002597328494737759</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01357888073203851</v>
+        <v>0.01302979629663958</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3308</v>
+        <v>4564</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.001300190634749059</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005345087902750697</v>
+        <v>0.007376229567746836</v>
       </c>
     </row>
     <row r="11">
@@ -1126,19 +1126,19 @@
         <v>301432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>289693</v>
+        <v>291648</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>305888</v>
+        <v>306459</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.973093303905769</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9351957700783924</v>
+        <v>0.9415075218408028</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9874777254300307</v>
+        <v>0.9893197984221223</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>517</v>
@@ -1147,19 +1147,19 @@
         <v>302593</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>292221</v>
+        <v>290190</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>306575</v>
+        <v>306620</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.979143033103372</v>
+        <v>0.9791430331033721</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9455812621784959</v>
+        <v>0.9390060927674366</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9920260055280257</v>
+        <v>0.9921713282563602</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>831</v>
@@ -1168,19 +1168,19 @@
         <v>604026</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>591017</v>
+        <v>591324</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>611048</v>
+        <v>611363</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9761146132244743</v>
+        <v>0.9761146132244741</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9550919848741231</v>
+        <v>0.9555888959904333</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9874627687521039</v>
+        <v>0.98797250117324</v>
       </c>
     </row>
     <row r="12">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14462</v>
+        <v>16690</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01292028894419777</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04679547673958218</v>
+        <v>0.05400574280376378</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1234,16 +1234,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17241</v>
+        <v>14834</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.006452551529568644</v>
+        <v>0.006452551529568642</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02786244922911968</v>
+        <v>0.02397154409078733</v>
       </c>
     </row>
     <row r="13">
@@ -1260,19 +1260,19 @@
         <v>6375</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2477</v>
+        <v>1918</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18124</v>
+        <v>16564</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02057984974113771</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007995426185208035</v>
+        <v>0.006193363467750171</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05850696062153812</v>
+        <v>0.0534710761174047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1281,19 +1281,19 @@
         <v>5387</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1921</v>
+        <v>1559</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17887</v>
+        <v>17687</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01743249543568972</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006216092293589597</v>
+        <v>0.00504580091550913</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05788070399711225</v>
+        <v>0.05723290124653986</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1302,19 +1302,19 @@
         <v>11762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5558</v>
+        <v>5135</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25675</v>
+        <v>22786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01900802221271134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008982436191212872</v>
+        <v>0.008298415255200805</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04149145058843252</v>
+        <v>0.03682234261285267</v>
       </c>
     </row>
     <row r="14">
@@ -1382,19 +1382,19 @@
         <v>3982</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>680</v>
+        <v>1020</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11019</v>
+        <v>11182</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.007687101020190162</v>
+        <v>0.007687101020190161</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.001313283410774514</v>
+        <v>0.001968566244130132</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02127005382177527</v>
+        <v>0.02158507438159643</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>5</v>
@@ -1403,19 +1403,19 @@
         <v>4834</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1621</v>
+        <v>1572</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11535</v>
+        <v>11292</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.009069881719115495</v>
+        <v>0.009069881719115498</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.003042067152484823</v>
+        <v>0.002948731042315128</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02164066858564049</v>
+        <v>0.02118403763349785</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>8</v>
@@ -1424,19 +1424,19 @@
         <v>8817</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3887</v>
+        <v>3903</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17475</v>
+        <v>17371</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.008388349777317288</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003698477592056363</v>
+        <v>0.003713387535366952</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01662630385993738</v>
+        <v>0.01652712255042532</v>
       </c>
     </row>
     <row r="16">
@@ -1547,19 +1547,19 @@
         <v>11358</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4485</v>
+        <v>4018</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25471</v>
+        <v>26272</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02192441854047431</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008658576672029456</v>
+        <v>0.007755378599797367</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04916765950905509</v>
+        <v>0.05071461262533327</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1568,19 +1568,19 @@
         <v>6783</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2881</v>
+        <v>3336</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14266</v>
+        <v>15106</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.01272528492194273</v>
+        <v>0.01272528492194274</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005404859066517109</v>
+        <v>0.006259215421309642</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02676481711385471</v>
+        <v>0.02833989997139145</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -1589,19 +1589,19 @@
         <v>18140</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9524</v>
+        <v>9837</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>34112</v>
+        <v>34299</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.01725926735514527</v>
+        <v>0.01725926735514526</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.009061276508195699</v>
+        <v>0.009359296738132801</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03245540333728478</v>
+        <v>0.0326331804274583</v>
       </c>
     </row>
     <row r="19">
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3106</v>
+        <v>3525</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001300162375336844</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.005826768434473121</v>
+        <v>0.006612377340113003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1702,16 +1702,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4215</v>
+        <v>3786</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0006593505756024781</v>
+        <v>0.0006593505756024779</v>
       </c>
       <c r="V20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.004010233214294496</v>
+        <v>0.003601845042974846</v>
       </c>
     </row>
     <row r="21">
@@ -1728,19 +1728,19 @@
         <v>7000</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2766</v>
+        <v>2737</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15153</v>
+        <v>15117</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01351230434376349</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005340013040147197</v>
+        <v>0.005283423908921163</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02925089631612997</v>
+        <v>0.02918115951826854</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -1749,19 +1749,19 @@
         <v>14098</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9054</v>
+        <v>8551</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22823</v>
+        <v>22110</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.02644913454051562</v>
+        <v>0.02644913454051563</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01698572044044289</v>
+        <v>0.0160418997857238</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04281734582710897</v>
+        <v>0.04147954634667161</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>25</v>
@@ -1770,19 +1770,19 @@
         <v>21098</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13713</v>
+        <v>14489</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31647</v>
+        <v>32331</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02007295138178451</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01304665281688151</v>
+        <v>0.01378515422881341</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03010950267074252</v>
+        <v>0.03075998777139242</v>
       </c>
     </row>
     <row r="22">
@@ -1799,19 +1799,19 @@
         <v>459610</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>439280</v>
+        <v>438264</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>476362</v>
+        <v>477019</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8872178733188213</v>
+        <v>0.8872178733188211</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.847972670964393</v>
+        <v>0.8460120740805915</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9195552395243203</v>
+        <v>0.9208237335456162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>641</v>
@@ -1820,19 +1820,19 @@
         <v>485727</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>472246</v>
+        <v>472062</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>496524</v>
+        <v>496125</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9112694028438495</v>
+        <v>0.9112694028438498</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8859776248752077</v>
+        <v>0.8856335371269819</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9315258839588146</v>
+        <v>0.9307779735057845</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>976</v>
@@ -1841,19 +1841,19 @@
         <v>945337</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>920500</v>
+        <v>921030</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>966501</v>
+        <v>965007</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8994151112463831</v>
+        <v>0.8994151112463828</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8757845814791519</v>
+        <v>0.8762891262969355</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9195510239156744</v>
+        <v>0.9181298940494728</v>
       </c>
     </row>
     <row r="23">
@@ -1870,19 +1870,19 @@
         <v>28513</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17458</v>
+        <v>16673</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>49753</v>
+        <v>43915</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05504102260604058</v>
+        <v>0.05504102260604057</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03370102281901579</v>
+        <v>0.03218579959461669</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09604193779135142</v>
+        <v>0.08477317198427467</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>20</v>
@@ -1891,19 +1891,19 @@
         <v>14965</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8949</v>
+        <v>9519</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23083</v>
+        <v>23020</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.02807504522831357</v>
+        <v>0.02807504522831359</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01678939739796749</v>
+        <v>0.01785921906740005</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04330557313261343</v>
+        <v>0.04318827616886718</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -1912,19 +1912,19 @@
         <v>43478</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30322</v>
+        <v>30135</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>61903</v>
+        <v>62036</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04136578246453034</v>
+        <v>0.04136578246453033</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02884911730747246</v>
+        <v>0.02867155444821366</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05889624344690704</v>
+        <v>0.05902241628101951</v>
       </c>
     </row>
     <row r="24">
@@ -1941,19 +1941,19 @@
         <v>21659</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12759</v>
+        <v>12655</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>34197</v>
+        <v>34923</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04181014740862295</v>
+        <v>0.04181014740862294</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02463019899960456</v>
+        <v>0.02442864871482957</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06601344155075582</v>
+        <v>0.06741435875376948</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -1962,19 +1962,19 @@
         <v>24626</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16771</v>
+        <v>16652</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34854</v>
+        <v>35587</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.04620038693952002</v>
+        <v>0.04620038693952003</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03146319624088308</v>
+        <v>0.03124133064637367</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06538999094183755</v>
+        <v>0.06676529740998519</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>47</v>
@@ -1983,19 +1983,19 @@
         <v>46285</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>34019</v>
+        <v>34396</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>61839</v>
+        <v>62054</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.04403656698254715</v>
+        <v>0.04403656698254714</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0323665719983325</v>
+        <v>0.03272484446925349</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05883537423346021</v>
+        <v>0.05903973960663732</v>
       </c>
     </row>
     <row r="25">
@@ -2012,19 +2012,19 @@
         <v>11848</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5080</v>
+        <v>4904</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24857</v>
+        <v>25529</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02287078688244302</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009806995645425516</v>
+        <v>0.009467471770427565</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0479838786903744</v>
+        <v>0.04928002963094078</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2033,19 +2033,19 @@
         <v>5660</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2318</v>
+        <v>2244</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11630</v>
+        <v>11448</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01061888998241346</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004349380237706993</v>
+        <v>0.004210889790645349</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02181857969965247</v>
+        <v>0.02147782422739438</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -2054,19 +2054,19 @@
         <v>17508</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>9268</v>
+        <v>9411</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>33688</v>
+        <v>31466</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01665748966165258</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008817838783108527</v>
+        <v>0.008954130122243782</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03205113971837061</v>
+        <v>0.02993727060207367</v>
       </c>
     </row>
     <row r="26">
@@ -2087,19 +2087,19 @@
         <v>6510</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2590</v>
+        <v>2653</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13304</v>
+        <v>14793</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02085191100453422</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.008294805932495142</v>
+        <v>0.008496967832110493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04261293385694281</v>
+        <v>0.04738396953554114</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2108,19 +2108,19 @@
         <v>7266</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3235</v>
+        <v>3169</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14726</v>
+        <v>14037</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02119929729060805</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009437443581281775</v>
+        <v>0.009246126212591254</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04296055941172038</v>
+        <v>0.04095062303063232</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -2129,19 +2129,19 @@
         <v>13776</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7760</v>
+        <v>7818</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>23483</v>
+        <v>23342</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.02103371080500823</v>
+        <v>0.02103371080500824</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0118482555124123</v>
+        <v>0.0119357376310129</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0358543576129185</v>
+        <v>0.03563886982652274</v>
       </c>
     </row>
     <row r="27">
@@ -2255,16 +2255,16 @@
         <v>942</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12900</v>
+        <v>13131</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.01499633533416945</v>
+        <v>0.01499633533416944</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003017729710139584</v>
+        <v>0.00301724451321671</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0413181805815545</v>
+        <v>0.04206090188445961</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2273,19 +2273,19 @@
         <v>2212</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5929</v>
+        <v>6432</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006453796985219223</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001879305785548843</v>
+        <v>0.001909161062818948</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01729747538073932</v>
+        <v>0.01876372342395873</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2294,19 +2294,19 @@
         <v>6894</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2930</v>
+        <v>2963</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15386</v>
+        <v>15084</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01052571622904243</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004472768511647221</v>
+        <v>0.004523616748198485</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02349146747082202</v>
+        <v>0.02302967782642069</v>
       </c>
     </row>
     <row r="30">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4342</v>
+        <v>4994</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002770377476947457</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01390869065787377</v>
+        <v>0.01599727285601525</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3883</v>
+        <v>3234</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001887769719205751</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01132842977806449</v>
+        <v>0.009435797685406179</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>5002</v>
+        <v>5987</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002308476933699878</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007637494630845365</v>
+        <v>0.009140303564923437</v>
       </c>
     </row>
     <row r="32">
@@ -2441,19 +2441,19 @@
         <v>3508</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9692</v>
+        <v>8719</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01123778284234485</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002843623865165469</v>
+        <v>0.002831991594931313</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03104447509876159</v>
+        <v>0.02792756794511739</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -2462,19 +2462,19 @@
         <v>3474</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1291</v>
+        <v>1305</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>9120</v>
+        <v>10440</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.01013588840684348</v>
+        <v>0.01013588840684349</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.003767695835854227</v>
+        <v>0.003807951504267904</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02660746480285787</v>
+        <v>0.03045758902152852</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -2483,19 +2483,19 @@
         <v>6983</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2962</v>
+        <v>2900</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14543</v>
+        <v>13411</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01066112165407041</v>
+        <v>0.01066112165407042</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004522296435835075</v>
+        <v>0.004427298114616586</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02220379419061433</v>
+        <v>0.02047629251289855</v>
       </c>
     </row>
     <row r="33">
@@ -2512,19 +2512,19 @@
         <v>294144</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>281732</v>
+        <v>285087</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>300790</v>
+        <v>300807</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9421655562921687</v>
+        <v>0.9421655562921686</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.902409826648773</v>
+        <v>0.9131544404411622</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.9634514960941467</v>
+        <v>0.9635089220895789</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>486</v>
@@ -2533,19 +2533,19 @@
         <v>319702</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>309775</v>
+        <v>310314</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>326692</v>
+        <v>327403</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.9327051532686861</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.9037419461527546</v>
+        <v>0.9053151746913495</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.9530969501919142</v>
+        <v>0.9551710730740097</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>824</v>
@@ -2554,19 +2554,19 @@
         <v>613846</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>601142</v>
+        <v>599833</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>624816</v>
+        <v>623423</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.9372145854248058</v>
+        <v>0.9372145854248056</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.917816955252418</v>
+        <v>0.9158193150025525</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.9539626410679878</v>
+        <v>0.9518352878920165</v>
       </c>
     </row>
     <row r="34">
@@ -2583,19 +2583,19 @@
         <v>5381</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1821</v>
+        <v>1884</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13945</v>
+        <v>12254</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01723633144676393</v>
+        <v>0.01723633144676392</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.005832298185144136</v>
+        <v>0.006033781926656959</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04466611613256856</v>
+        <v>0.03925165409771847</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>4</v>
@@ -2604,19 +2604,19 @@
         <v>3610</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1160</v>
+        <v>899</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9636</v>
+        <v>9924</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0105308142558578</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003383855227265867</v>
+        <v>0.002623978771958645</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02811119617419746</v>
+        <v>0.02895157410400446</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -2625,19 +2625,19 @@
         <v>8991</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4341</v>
+        <v>3934</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>17551</v>
+        <v>17738</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01372709191644253</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.006627283858912278</v>
+        <v>0.006006403836190067</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02679606696803637</v>
+        <v>0.02708230534416021</v>
       </c>
     </row>
     <row r="35">
@@ -2654,19 +2654,19 @@
         <v>9515</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4712</v>
+        <v>4607</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17920</v>
+        <v>17971</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.03047836429885781</v>
+        <v>0.0304783642988578</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0150921189018307</v>
+        <v>0.01475652468153952</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05739952496447865</v>
+        <v>0.05756121154168953</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>24</v>
@@ -2675,19 +2675,19 @@
         <v>18923</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>12716</v>
+        <v>11686</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>28673</v>
+        <v>27792</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.05520689706430574</v>
+        <v>0.05520689706430576</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03709845608443786</v>
+        <v>0.03409278542842886</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08365037307010764</v>
+        <v>0.08108187647335435</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>34</v>
@@ -2696,19 +2696,19 @@
         <v>28439</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>20016</v>
+        <v>19914</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>39712</v>
+        <v>41058</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04341969935725488</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03056057499878909</v>
+        <v>0.03040416276836324</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06063202267084775</v>
+        <v>0.0626872297982007</v>
       </c>
     </row>
     <row r="36">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3825</v>
+        <v>4297</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.00185379884562727</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01115776765165812</v>
+        <v>0.01253679294112618</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3218</v>
+        <v>2984</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.0009701599451809463</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.004913165396769425</v>
+        <v>0.004555441289015397</v>
       </c>
     </row>
     <row r="37">
@@ -2792,19 +2792,19 @@
         <v>7417</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>17889</v>
+        <v>18351</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02101071506909305</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007004057299273909</v>
+        <v>0.006998225135535138</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05067921318759041</v>
+        <v>0.05198765089974363</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -2813,19 +2813,19 @@
         <v>11989</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6184</v>
+        <v>6573</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25000</v>
+        <v>25282</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03041364253653943</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01568724373999224</v>
+        <v>0.0166736040936329</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06342218979466427</v>
+        <v>0.06413700415422526</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>18</v>
@@ -2834,19 +2834,19 @@
         <v>19405</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>11322</v>
+        <v>11008</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>33242</v>
+        <v>34508</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0259714058013262</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01515306714376204</v>
+        <v>0.01473296246161418</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04448950434137264</v>
+        <v>0.0461844587680467</v>
       </c>
     </row>
     <row r="38">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8725</v>
+        <v>9139</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.004467615072830823</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02471835213033475</v>
+        <v>0.02589130623357956</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>8974</v>
+        <v>8603</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.00211064095347225</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01201025130174622</v>
+        <v>0.01151386889723948</v>
       </c>
     </row>
     <row r="39">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9751</v>
+        <v>9945</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.005596209808013753</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02762396285846665</v>
+        <v>0.02817331628490243</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3454</v>
+        <v>3341</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001667892484641751</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.008761318876983094</v>
+        <v>0.008474965909023087</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>11492</v>
+        <v>10940</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003523752330617655</v>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01538010938750891</v>
+        <v>0.01464115980626614</v>
       </c>
     </row>
     <row r="41">
@@ -3091,19 +3091,19 @@
         <v>3910</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1143</v>
+        <v>1123</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12046</v>
+        <v>11877</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01107589482201734</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.003238955411205768</v>
+        <v>0.003180340704672971</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03412505978842675</v>
+        <v>0.03364657888730976</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -3112,19 +3112,19 @@
         <v>2547</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>6995</v>
+        <v>6642</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.006460723484625605</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.001620083533930409</v>
+        <v>0.001569176656959849</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01774644365798578</v>
+        <v>0.01684922872078137</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6</v>
@@ -3133,19 +3133,19 @@
         <v>6456</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2461</v>
+        <v>2720</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>14234</v>
+        <v>13995</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.008641074627952309</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003294032544597518</v>
+        <v>0.00364038337127893</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01904998403353888</v>
+        <v>0.01873029504207347</v>
       </c>
     </row>
     <row r="43">
@@ -3162,19 +3162,19 @@
         <v>5419</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1515</v>
+        <v>1491</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>16729</v>
+        <v>14922</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01535205555164112</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.004291321993146325</v>
+        <v>0.004223886144841035</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04739199422813811</v>
+        <v>0.04227328890865014</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>4</v>
@@ -3183,19 +3183,19 @@
         <v>3093</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1005</v>
+        <v>676</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>8472</v>
+        <v>7893</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.007846026180214556</v>
+        <v>0.007846026180214558</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.002549090582572419</v>
+        <v>0.001715505986942439</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02149121310156308</v>
+        <v>0.02002277553188554</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>8</v>
@@ -3204,19 +3204,19 @@
         <v>8512</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3938</v>
+        <v>3727</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>20652</v>
+        <v>20268</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01139210898525356</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.005270349275991855</v>
+        <v>0.004988158870503108</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02764041107682592</v>
+        <v>0.02712623920461758</v>
       </c>
     </row>
     <row r="44">
@@ -3233,19 +3233,19 @@
         <v>308120</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>286399</v>
+        <v>285973</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>322457</v>
+        <v>323050</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.872880355315254</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8113471539638009</v>
+        <v>0.8101397293161821</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.913496656699479</v>
+        <v>0.9151765274423875</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>518</v>
@@ -3254,19 +3254,19 @@
         <v>354687</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>339215</v>
+        <v>341929</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>364895</v>
+        <v>366045</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8997876941318941</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8605368141690743</v>
+        <v>0.8674210432330862</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9256821387020872</v>
+        <v>0.9286012673212199</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>769</v>
@@ -3275,19 +3275,19 @@
         <v>662807</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>639132</v>
+        <v>638036</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>683572</v>
+        <v>680363</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8870758265404527</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8553904181698067</v>
+        <v>0.8539226906512193</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9148662196770005</v>
+        <v>0.9105723075473483</v>
       </c>
     </row>
     <row r="45">
@@ -3304,19 +3304,19 @@
         <v>10821</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>3348</v>
+        <v>3256</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>29321</v>
+        <v>29083</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03065608559157192</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.009483596023489702</v>
+        <v>0.009222668567726411</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.08306521217688612</v>
+        <v>0.08238959150213873</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>13</v>
@@ -3325,19 +3325,19 @@
         <v>9294</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>5165</v>
+        <v>5158</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>18204</v>
+        <v>17317</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.02357646392476197</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01310347588279761</v>
+        <v>0.01308583430533303</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.04618068207756612</v>
+        <v>0.04393160693008652</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>18</v>
@@ -3346,19 +3346,19 @@
         <v>20115</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>11193</v>
+        <v>11011</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>38843</v>
+        <v>38507</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.02692109840679905</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01497964665567827</v>
+        <v>0.01473640072257797</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.05198592173006288</v>
+        <v>0.05153633032501449</v>
       </c>
     </row>
     <row r="46">
@@ -3375,19 +3375,19 @@
         <v>20104</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>11009</v>
+        <v>11219</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>35747</v>
+        <v>37665</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.05695223593733678</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.03118683906565556</v>
+        <v>0.03178365858936414</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1012687008570903</v>
+        <v>0.1067011849636468</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>31</v>
@@ -3396,19 +3396,19 @@
         <v>27166</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>17707</v>
+        <v>17800</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>41268</v>
+        <v>39900</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.06891545624470348</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.04492121292293872</v>
+        <v>0.04515626847430515</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1046897506331538</v>
+        <v>0.101221144718654</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>46</v>
@@ -3417,19 +3417,19 @@
         <v>47269</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>33141</v>
+        <v>33859</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>65935</v>
+        <v>68032</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.06326365717416722</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.04435467212219812</v>
+        <v>0.04531610858451856</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08824526873841146</v>
+        <v>0.09105199167697238</v>
       </c>
     </row>
     <row r="47">
@@ -3446,19 +3446,19 @@
         <v>3121</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>834</v>
+        <v>1088</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8527</v>
+        <v>7560</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.008840346188144008</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.002363115947308383</v>
+        <v>0.003080908894842852</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02415674362498077</v>
+        <v>0.02141817096121577</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>4865</v>
+        <v>4629</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.002101565483420639</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01234137727965328</v>
+        <v>0.0117434943184044</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>5</v>
@@ -3488,19 +3488,19 @@
         <v>3949</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1035</v>
+        <v>1415</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>8550</v>
+        <v>9560</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.005285176045206458</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.001384570686458877</v>
+        <v>0.001893191029304684</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01144366228719222</v>
+        <v>0.01279455825056141</v>
       </c>
     </row>
     <row r="48">
@@ -3534,19 +3534,19 @@
         <v>1367</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>3620</v>
+        <v>3684</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.006090716351770796</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.001906958777743544</v>
+        <v>0.00196505024480202</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.01613313536435124</v>
+        <v>0.01641846140886357</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3</v>
@@ -3555,19 +3555,19 @@
         <v>1367</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>3681</v>
+        <v>3727</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.003205616852450733</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0</v>
+        <v>0.001034224352475336</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.008633085354299196</v>
+        <v>0.00874200430176466</v>
       </c>
     </row>
     <row r="49">
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>6250</v>
+        <v>4535</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.00498105025250345</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.03094535788447984</v>
+        <v>0.02245485505688894</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>0</v>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>4990</v>
+        <v>4676</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.002359463938163471</v>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01170430508899052</v>
+        <v>0.01096745252645202</v>
       </c>
     </row>
     <row r="54">
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3506</v>
+        <v>4008</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.005616610757611742</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01736167627850603</v>
+        <v>0.01984808399666932</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>1603</v>
+        <v>1918</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.001720467612374712</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.00714551439360213</v>
+        <v>0.008547845058723831</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>3</v>
@@ -3877,19 +3877,19 @@
         <v>1520</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>4427</v>
+        <v>3845</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.003566024027809251</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.0008951176025578569</v>
+        <v>0.0008843435587584436</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01038463991868096</v>
+        <v>0.009019141072789507</v>
       </c>
     </row>
     <row r="55">
@@ -3906,19 +3906,19 @@
         <v>199317</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>195366</v>
+        <v>194897</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>201355</v>
+        <v>201347</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.9869426308882601</v>
+        <v>0.9869426308882602</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.967376575454409</v>
+        <v>0.965054058103072</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.9970316414906149</v>
+        <v>0.9969929855315336</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>476</v>
@@ -3927,19 +3927,19 @@
         <v>219057</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>214945</v>
+        <v>214077</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>221675</v>
+        <v>221556</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>0.9762379917285466</v>
+        <v>0.9762379917285465</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.9579127670010562</v>
+        <v>0.9540419572601101</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.9879063268131795</v>
+        <v>0.9873753222604597</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>747</v>
@@ -3948,19 +3948,19 @@
         <v>418374</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>412725</v>
+        <v>412433</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>421926</v>
+        <v>421915</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.9813086512858762</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.968057803143373</v>
+        <v>0.9673727418857109</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.989640175005892</v>
+        <v>0.9896137901687003</v>
       </c>
     </row>
     <row r="56">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2053</v>
+        <v>2488</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.002459708101624626</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.0101669567134582</v>
+        <v>0.01232106586843266</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>5</v>
@@ -3998,19 +3998,19 @@
         <v>2669</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>780</v>
+        <v>1015</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>6753</v>
+        <v>7551</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01189514030408037</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.003475672083013147</v>
+        <v>0.004521557730218898</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.03009316660282953</v>
+        <v>0.03365315162297945</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>6</v>
@@ -4019,19 +4019,19 @@
         <v>3166</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1247</v>
+        <v>1198</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>8748</v>
+        <v>8291</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.007425688904450015</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.002924251959716294</v>
+        <v>0.002809317014177034</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.02051788340396569</v>
+        <v>0.01944651344023816</v>
       </c>
     </row>
     <row r="57">
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>3506</v>
+        <v>4008</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.005616610757611742</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.01736167627850603</v>
+        <v>0.01984808399666932</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>5</v>
@@ -4069,19 +4069,19 @@
         <v>2146</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>780</v>
+        <v>798</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>4617</v>
+        <v>4324</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>0.009565130269707671</v>
+        <v>0.009565130269707669</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.00347694566863525</v>
+        <v>0.003557096785946873</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.02057601312638968</v>
+        <v>0.01927033186358018</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>7</v>
@@ -4090,19 +4090,19 @@
         <v>3281</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>1363</v>
+        <v>1323</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>6413</v>
+        <v>6347</v>
       </c>
       <c r="U57" s="6" t="n">
-        <v>0.007694763795640719</v>
+        <v>0.00769476379564072</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.003197387422183137</v>
+        <v>0.00310302974987006</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.01504271878752426</v>
+        <v>0.01488646374830272</v>
       </c>
     </row>
     <row r="58">
@@ -4170,19 +4170,19 @@
         <v>4246</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>1486</v>
+        <v>1585</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>9610</v>
+        <v>9618</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.0160270762511492</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.005609935952853782</v>
+        <v>0.005983134412920512</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.03627113598568665</v>
+        <v>0.03630154432060929</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>10</v>
@@ -4191,19 +4191,19 @@
         <v>6883</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>3242</v>
+        <v>3419</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>13166</v>
+        <v>13075</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.02642327656291168</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.01244721286720741</v>
+        <v>0.01312479668896768</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.05054131361480458</v>
+        <v>0.05019406388476553</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>15</v>
@@ -4212,19 +4212,19 @@
         <v>11129</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>6333</v>
+        <v>6235</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>18418</v>
+        <v>18907</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.02118106415850494</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.01205327356538718</v>
+        <v>0.01186698782739693</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.03505292387250399</v>
+        <v>0.03598314987189793</v>
       </c>
     </row>
     <row r="60">
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>7492</v>
+        <v>6173</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.005668830452236658</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.02827847125687244</v>
+        <v>0.02330022753425396</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>9043</v>
+        <v>8974</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.002858468712032319</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.01720951925934325</v>
+        <v>0.01707980917487817</v>
       </c>
     </row>
     <row r="61">
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>6534</v>
+        <v>5956</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.006355548034776118</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.02466127417492888</v>
+        <v>0.02248082081049747</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>4</v>
@@ -4372,19 +4372,19 @@
         <v>2382</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>699</v>
+        <v>566</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>6250</v>
+        <v>6024</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.009144689271021283</v>
+        <v>0.009144689271021285</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.002682472440626405</v>
+        <v>0.002173571867456492</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.0239945349270213</v>
+        <v>0.02312462535989517</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>6</v>
@@ -4393,19 +4393,19 @@
         <v>4066</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>1480</v>
+        <v>1779</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>8541</v>
+        <v>8483</v>
       </c>
       <c r="U62" s="6" t="n">
-        <v>0.007738284012578549</v>
+        <v>0.007738284012578548</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.002816120117265071</v>
+        <v>0.003385835214464894</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.01625504673364799</v>
+        <v>0.01614441714547114</v>
       </c>
     </row>
     <row r="63">
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>6205</v>
+        <v>6124</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.006608438027640606</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.02341912291221626</v>
+        <v>0.02311228714024571</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>1</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>3627</v>
+        <v>3765</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.002687918728592307</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.01392196811732042</v>
+        <v>0.01445461580672789</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>3</v>
@@ -4558,19 +4558,19 @@
         <v>2451</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>7044</v>
+        <v>6613</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.004664813582949224</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.001327659660476163</v>
+        <v>0.001345345783331912</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.01340520958944817</v>
+        <v>0.0125863687050611</v>
       </c>
     </row>
     <row r="66">
@@ -4587,19 +4587,19 @@
         <v>250026</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>241316</v>
+        <v>240890</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>256303</v>
+        <v>256159</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.943671080953185</v>
       </c>
       <c r="H66" s="6" t="n">
-        <v>0.9107971258306944</v>
+        <v>0.9091902815240049</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.9673654205483506</v>
+        <v>0.9668204842651441</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>431</v>
@@ -4608,19 +4608,19 @@
         <v>244199</v>
       </c>
       <c r="L66" s="5" t="n">
-        <v>235364</v>
+        <v>235071</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>250160</v>
+        <v>249944</v>
       </c>
       <c r="N66" s="6" t="n">
         <v>0.9374550638123813</v>
       </c>
       <c r="O66" s="6" t="n">
-        <v>0.9035386643384179</v>
+        <v>0.9024140250907884</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>0.9603390829362635</v>
+        <v>0.9595103107798693</v>
       </c>
       <c r="Q66" s="5" t="n">
         <v>778</v>
@@ -4629,19 +4629,19 @@
         <v>494224</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>482700</v>
+        <v>481335</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>503365</v>
+        <v>503046</v>
       </c>
       <c r="U66" s="6" t="n">
-        <v>0.9405894476434298</v>
+        <v>0.9405894476434296</v>
       </c>
       <c r="V66" s="6" t="n">
-        <v>0.9186567246168669</v>
+        <v>0.9160584366365723</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.9579861909245914</v>
+        <v>0.957377946486493</v>
       </c>
     </row>
     <row r="67">
@@ -4658,19 +4658,19 @@
         <v>2517</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>797</v>
+        <v>809</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>6966</v>
+        <v>6932</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.009499210275985236</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.00300937309036405</v>
+        <v>0.003053714519552887</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.02629197781264404</v>
+        <v>0.02616198980667258</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>2</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>4181</v>
+        <v>4245</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.004675259065593326</v>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.01605105914170424</v>
+        <v>0.01629751910073081</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>5</v>
@@ -4700,19 +4700,19 @@
         <v>3735</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>1414</v>
+        <v>1420</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>8052</v>
+        <v>8494</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.007107703238947491</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.002691695350211129</v>
+        <v>0.002702707620566521</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.01532427390676591</v>
+        <v>0.01616597215022914</v>
       </c>
     </row>
     <row r="68">
@@ -4729,19 +4729,19 @@
         <v>12347</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>7073</v>
+        <v>6729</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>21277</v>
+        <v>20976</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.04660215776538532</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.02669514742041577</v>
+        <v>0.02539690918500558</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.08030604921900485</v>
+        <v>0.07916930896010538</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>19</v>
@@ -4750,19 +4750,19 @@
         <v>14141</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>8392</v>
+        <v>8639</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>22715</v>
+        <v>22729</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.05428550640363006</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.03221621260435995</v>
+        <v>0.03316418600763715</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.08720092118806053</v>
+        <v>0.08725499363560146</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>33</v>
@@ -4771,19 +4771,19 @@
         <v>26488</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>18042</v>
+        <v>18810</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>37421</v>
+        <v>38201</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.05041123077109756</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.03433761751405925</v>
+        <v>0.03579929812198293</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.0712179216972231</v>
+        <v>0.07270278559520185</v>
       </c>
     </row>
     <row r="69">
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>7492</v>
+        <v>6173</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.005668830452236658</v>
@@ -4812,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.02827847125687244</v>
+        <v>0.02330022753425396</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>9043</v>
+        <v>8974</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.002858468712032319</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.01720951925934325</v>
+        <v>0.01707980917487817</v>
       </c>
     </row>
     <row r="70">
@@ -4867,19 +4867,19 @@
         <v>6475</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>2974</v>
+        <v>2301</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>14929</v>
+        <v>13501</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.009515420444924427</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.004371324730214809</v>
+        <v>0.003381175106486504</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.0219405455166733</v>
+        <v>0.01984215881786388</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>19</v>
@@ -4888,19 +4888,19 @@
         <v>16692</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>9944</v>
+        <v>10106</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>25939</v>
+        <v>26875</v>
       </c>
       <c r="N70" s="6" t="n">
-        <v>0.02273740007355302</v>
+        <v>0.02273740007355301</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.0135452547854597</v>
+        <v>0.0137659039865759</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.0353339397025794</v>
+        <v>0.03660941745138968</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>25</v>
@@ -4909,19 +4909,19 @@
         <v>23166</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>14770</v>
+        <v>14876</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>35031</v>
+        <v>35348</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.01637725345528826</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.01044118955922504</v>
+        <v>0.01051620646101747</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.02476491216025418</v>
+        <v>0.02498868977061522</v>
       </c>
     </row>
     <row r="71">
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>5739</v>
+        <v>5771</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.001663838542987841</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.008434146448595766</v>
+        <v>0.008480563139090326</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>1</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>3594</v>
+        <v>3809</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.0009649872130724375</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.004895174022921199</v>
+        <v>0.005189198287536636</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>2</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>5615</v>
+        <v>5945</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.00130115449266855</v>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.003969576942291242</v>
+        <v>0.004202699263119556</v>
       </c>
     </row>
     <row r="72">
@@ -5056,19 +5056,19 @@
         <v>3010</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>8672</v>
+        <v>9264</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.00442350253879774</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.001362127639601604</v>
+        <v>0.001363945464193905</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.01274522837652154</v>
+        <v>0.01361439608683465</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>6</v>
@@ -5077,19 +5077,19 @@
         <v>4221</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>1690</v>
+        <v>1415</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>9095</v>
+        <v>8606</v>
       </c>
       <c r="N73" s="6" t="n">
-        <v>0.00575024864253338</v>
+        <v>0.005750248642533379</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0.002301869495052775</v>
+        <v>0.001927828297377476</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.0123893614187549</v>
+        <v>0.01172268549961871</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>9</v>
@@ -5098,19 +5098,19 @@
         <v>7231</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>3486</v>
+        <v>3557</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>13833</v>
+        <v>13396</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.005112046196153918</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.002464369186116474</v>
+        <v>0.002514552715386297</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.009779315939302789</v>
+        <v>0.009469985428362795</v>
       </c>
     </row>
     <row r="74">
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>6533</v>
+        <v>5651</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.001660118375690792</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.009600597196972779</v>
+        <v>0.008305495087099107</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>3</v>
@@ -5148,19 +5148,19 @@
         <v>2349</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>6413</v>
+        <v>7235</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.003199136457347198</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.0009968089842993532</v>
+        <v>0.001003346412426797</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.008735091674045821</v>
+        <v>0.009855587333651066</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>4</v>
@@ -5169,19 +5169,19 @@
         <v>3478</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>1135</v>
+        <v>875</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>9410</v>
+        <v>8727</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.002458825178520143</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.0008021783135857577</v>
+        <v>0.0006188110282872237</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.006652207549699266</v>
+        <v>0.0061696980569364</v>
       </c>
     </row>
     <row r="75">
@@ -5198,19 +5198,19 @@
         <v>3095</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>950</v>
+        <v>912</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>9086</v>
+        <v>7624</v>
       </c>
       <c r="G75" s="6" t="n">
         <v>0.004547926557851995</v>
       </c>
       <c r="H75" s="6" t="n">
-        <v>0.00139665296442586</v>
+        <v>0.001340352571535019</v>
       </c>
       <c r="I75" s="6" t="n">
-        <v>0.01335384958260284</v>
+        <v>0.01120471161857595</v>
       </c>
       <c r="J75" s="5" t="n">
         <v>8</v>
@@ -5219,19 +5219,19 @@
         <v>5695</v>
       </c>
       <c r="L75" s="5" t="n">
-        <v>2767</v>
+        <v>2758</v>
       </c>
       <c r="M75" s="5" t="n">
-        <v>10701</v>
+        <v>10511</v>
       </c>
       <c r="N75" s="6" t="n">
         <v>0.007757661472277399</v>
       </c>
       <c r="O75" s="6" t="n">
-        <v>0.003768586878922129</v>
+        <v>0.003757461792222465</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>0.0145767171849339</v>
+        <v>0.01431823847423796</v>
       </c>
       <c r="Q75" s="5" t="n">
         <v>11</v>
@@ -5240,19 +5240,19 @@
         <v>8790</v>
       </c>
       <c r="S75" s="5" t="n">
-        <v>4522</v>
+        <v>4543</v>
       </c>
       <c r="T75" s="5" t="n">
-        <v>15770</v>
+        <v>15993</v>
       </c>
       <c r="U75" s="6" t="n">
         <v>0.006213688085924022</v>
       </c>
       <c r="V75" s="6" t="n">
-        <v>0.003197084493991541</v>
+        <v>0.003211309086813558</v>
       </c>
       <c r="W75" s="6" t="n">
-        <v>0.01114876707225085</v>
+        <v>0.01130641407477123</v>
       </c>
     </row>
     <row r="76">
@@ -5269,19 +5269,19 @@
         <v>6322</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>2317</v>
+        <v>2195</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>12734</v>
+        <v>13456</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.00929141466545879</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.003404697959386643</v>
+        <v>0.003225149461034703</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.01871417804141242</v>
+        <v>0.01977578841246534</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>7</v>
@@ -5290,19 +5290,19 @@
         <v>4864</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>2106</v>
+        <v>2052</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>9559</v>
+        <v>9813</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.00662587575885475</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.002868233588356779</v>
+        <v>0.00279492974118601</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.0130212757955012</v>
+        <v>0.01336743913967122</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>13</v>
@@ -5311,19 +5311,19 @@
         <v>11186</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>6211</v>
+        <v>6413</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>19514</v>
+        <v>18862</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.007908075455032111</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.004391034348243894</v>
+        <v>0.004533310593672176</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.01379518038012984</v>
+        <v>0.01333405732062862</v>
       </c>
     </row>
     <row r="77">
@@ -5340,19 +5340,19 @@
         <v>647412</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>634617</v>
+        <v>633621</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>656946</v>
+        <v>658142</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.9514616000523388</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.9326579368924638</v>
+        <v>0.9311948578415574</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.9654736507971445</v>
+        <v>0.967231440771961</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>827</v>
@@ -5361,19 +5361,19 @@
         <v>659733</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>642765</v>
+        <v>642137</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>675276</v>
+        <v>674361</v>
       </c>
       <c r="N77" s="6" t="n">
-        <v>0.8986817267819797</v>
+        <v>0.8986817267819796</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.8755675941774063</v>
+        <v>0.8747130810347138</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.9198546098718374</v>
+        <v>0.9186071610740201</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>1366</v>
@@ -5382,19 +5382,19 @@
         <v>1307145</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>1285803</v>
+        <v>1284684</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>1325800</v>
+        <v>1326033</v>
       </c>
       <c r="U77" s="6" t="n">
-        <v>0.9240703404330003</v>
+        <v>0.9240703404330004</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.908983222335944</v>
+        <v>0.9081920959253237</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.9372586719521935</v>
+        <v>0.9374230626855822</v>
       </c>
     </row>
     <row r="78">
@@ -5411,19 +5411,19 @@
         <v>3400</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>948</v>
+        <v>928</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>9604</v>
+        <v>9609</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.004996493187612234</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.001393767832772135</v>
+        <v>0.001364000986732052</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.01411378277067767</v>
+        <v>0.0141217046727866</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>12</v>
@@ -5432,19 +5432,19 @@
         <v>9245</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>5078</v>
+        <v>5304</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>16400</v>
+        <v>16094</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.01259301593195247</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.006917788792945554</v>
+        <v>0.007224405852684616</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.02233975639224248</v>
+        <v>0.02192275393219882</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>15</v>
@@ -5453,19 +5453,19 @@
         <v>12644</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>7692</v>
+        <v>7267</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>21812</v>
+        <v>21473</v>
       </c>
       <c r="U78" s="6" t="n">
-        <v>0.00893887337538901</v>
+        <v>0.008938873375389011</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.00543750595643732</v>
+        <v>0.005137103230310329</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.01541959902516475</v>
+        <v>0.01517992868328486</v>
       </c>
     </row>
     <row r="79">
@@ -5482,19 +5482,19 @@
         <v>18921</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>11716</v>
+        <v>11302</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>30479</v>
+        <v>30069</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.0278067943460529</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.0172180079820785</v>
+        <v>0.01660956891237214</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.04479309217810942</v>
+        <v>0.04419110853230208</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>52</v>
@@ -5503,19 +5503,19 @@
         <v>45588</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>33974</v>
+        <v>34428</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>60576</v>
+        <v>61905</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.06209899937947861</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.04627900285099418</v>
+        <v>0.04689755786138482</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.0825158448929927</v>
+        <v>0.08432690998473912</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>68</v>
@@ -5524,19 +5524,19 @@
         <v>64508</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>50377</v>
+        <v>49457</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>83066</v>
+        <v>83079</v>
       </c>
       <c r="U79" s="6" t="n">
-        <v>0.04560347767984289</v>
+        <v>0.0456034776798429</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.03561315207640683</v>
+        <v>0.03496325503490458</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.05872223425407242</v>
+        <v>0.05873138529205214</v>
       </c>
     </row>
     <row r="80">
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>6345</v>
+        <v>5079</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.001665147642898885</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.009325539702978697</v>
+        <v>0.007463723947478591</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>6</v>
@@ -5574,19 +5574,19 @@
         <v>5029</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>11605</v>
+        <v>11655</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.006850260420811108</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.002848919977627163</v>
+        <v>0.002845231224602512</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.0158081577208071</v>
+        <v>0.01587681190803809</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>7</v>
@@ -5595,19 +5595,19 @@
         <v>6162</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>2617</v>
+        <v>2225</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>12570</v>
+        <v>12989</v>
       </c>
       <c r="U80" s="6" t="n">
-        <v>0.004356074343837068</v>
+        <v>0.004356074343837069</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.001850320693109085</v>
+        <v>0.001572951051687529</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.008885932431288971</v>
+        <v>0.009182520961594607</v>
       </c>
     </row>
     <row r="81">
@@ -5628,19 +5628,19 @@
         <v>36768</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>25818</v>
+        <v>25389</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>51414</v>
+        <v>52993</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>0.0471090950143614</v>
+        <v>0.04710909501436139</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.03307910955727383</v>
+        <v>0.03252961754614143</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.06587484457236484</v>
+        <v>0.06789769614382132</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>32</v>
@@ -5649,19 +5649,19 @@
         <v>32189</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>21816</v>
+        <v>22806</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>46194</v>
+        <v>45393</v>
       </c>
       <c r="N81" s="6" t="n">
-        <v>0.04018403750612785</v>
+        <v>0.04018403750612786</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.02723488032405049</v>
+        <v>0.02847041938461261</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.05766806796849012</v>
+        <v>0.05666750687845651</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>62</v>
@@ -5670,19 +5670,19 @@
         <v>68957</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>53386</v>
+        <v>53391</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>88571</v>
+        <v>89214</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.04360155821133124</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.03375635878434172</v>
+        <v>0.03375906207477589</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.0560035621759437</v>
+        <v>0.05640995305119009</v>
       </c>
     </row>
     <row r="82">
@@ -5699,19 +5699,19 @@
         <v>9015</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>4377</v>
+        <v>4419</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>17865</v>
+        <v>16515</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.01155049382192457</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.005607740822486813</v>
+        <v>0.005662051286694203</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.02288923418712306</v>
+        <v>0.02116038032939572</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>10</v>
@@ -5720,19 +5720,19 @@
         <v>7330</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>3488</v>
+        <v>3621</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>13366</v>
+        <v>12768</v>
       </c>
       <c r="N82" s="6" t="n">
-        <v>0.009150253410127675</v>
+        <v>0.009150253410127679</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.004354505313224863</v>
+        <v>0.004520496091536234</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.01668522023375149</v>
+        <v>0.01593986588621963</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>18</v>
@@ -5741,19 +5741,19 @@
         <v>16345</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>10192</v>
+        <v>9772</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>24923</v>
+        <v>26141</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.01033477372566715</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.006444732846549036</v>
+        <v>0.006178921309220368</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.0157585760027931</v>
+        <v>0.01652896132921309</v>
       </c>
     </row>
     <row r="83">
@@ -5786,16 +5786,16 @@
         <v>614</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>11007</v>
+        <v>11049</v>
       </c>
       <c r="N83" s="6" t="n">
-        <v>0.004293229386482988</v>
+        <v>0.004293229386482989</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.0007663790878701894</v>
+        <v>0.0007669245375576687</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.01374106895900687</v>
+        <v>0.01379306355697723</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>3</v>
@@ -5804,19 +5804,19 @@
         <v>3439</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>12109</v>
+        <v>10892</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.00217451769303514</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.0003920730793017571</v>
+        <v>0.0003907471735461285</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.007656709787714818</v>
+        <v>0.006886936837068361</v>
       </c>
     </row>
     <row r="84">
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>6127</v>
+        <v>6933</v>
       </c>
       <c r="G84" s="6" t="n">
         <v>0.002129970504097036</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.007849944157322018</v>
+        <v>0.008882857865761092</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>2</v>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>5121</v>
+        <v>4508</v>
       </c>
       <c r="N84" s="6" t="n">
         <v>0.00184467240677506</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.006392334597029955</v>
+        <v>0.005627796657697204</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>4</v>
@@ -5875,19 +5875,19 @@
         <v>3140</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>952</v>
+        <v>920</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>8222</v>
+        <v>7523</v>
       </c>
       <c r="U84" s="6" t="n">
         <v>0.001985467216578985</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.0006018284482243948</v>
+        <v>0.0005817838012941611</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.005198573950408156</v>
+        <v>0.004756541354635162</v>
       </c>
     </row>
     <row r="85">
@@ -5917,19 +5917,19 @@
         <v>2545</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>7299</v>
+        <v>7701</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>0.003176543811756553</v>
+        <v>0.003176543811756552</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.0009201924132598666</v>
+        <v>0.0009314394143091828</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.009111511365668998</v>
+        <v>0.009613627019812165</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>3</v>
@@ -5938,19 +5938,19 @@
         <v>2545</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>7024</v>
+        <v>7913</v>
       </c>
       <c r="U85" s="6" t="n">
         <v>0.001608917227463704</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.0004615909454763998</v>
+        <v>0.0004647274084377018</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.00444113356352352</v>
+        <v>0.005003365232941474</v>
       </c>
     </row>
     <row r="86">
@@ -5967,19 +5967,19 @@
         <v>23907</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>15529</v>
+        <v>15842</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>36803</v>
+        <v>35573</v>
       </c>
       <c r="G86" s="6" t="n">
         <v>0.03063053621491774</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.01989716406138113</v>
+        <v>0.02029800194914694</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.04715417650256466</v>
+        <v>0.04557796925407004</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>19</v>
@@ -5988,19 +5988,19 @@
         <v>15418</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>10048</v>
+        <v>9867</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>24378</v>
+        <v>24053</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.01924690039638727</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.01254312445306392</v>
+        <v>0.0123171711644619</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.03043341996114058</v>
+        <v>0.03002677691934271</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>40</v>
@@ -6009,19 +6009,19 @@
         <v>39324</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>28786</v>
+        <v>28883</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>53968</v>
+        <v>53564</v>
       </c>
       <c r="U86" s="6" t="n">
         <v>0.02486473260414411</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.01820128242180823</v>
+        <v>0.01826246109490796</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.0341240418482163</v>
+        <v>0.03386856863616949</v>
       </c>
     </row>
     <row r="87">
@@ -6038,19 +6038,19 @@
         <v>20968</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>12556</v>
+        <v>12962</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>32181</v>
+        <v>32494</v>
       </c>
       <c r="G87" s="6" t="n">
-        <v>0.02686583393078452</v>
+        <v>0.02686583393078451</v>
       </c>
       <c r="H87" s="6" t="n">
-        <v>0.01608763244019508</v>
+        <v>0.01660758459229323</v>
       </c>
       <c r="I87" s="6" t="n">
-        <v>0.0412316983142482</v>
+        <v>0.0416331505777036</v>
       </c>
       <c r="J87" s="5" t="n">
         <v>24</v>
@@ -6059,19 +6059,19 @@
         <v>17890</v>
       </c>
       <c r="L87" s="5" t="n">
-        <v>11108</v>
+        <v>11639</v>
       </c>
       <c r="M87" s="5" t="n">
-        <v>26344</v>
+        <v>27346</v>
       </c>
       <c r="N87" s="6" t="n">
-        <v>0.02233324489015006</v>
+        <v>0.02233324489015007</v>
       </c>
       <c r="O87" s="6" t="n">
-        <v>0.01386704204705654</v>
+        <v>0.01452984313416651</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>0.03288708291075845</v>
+        <v>0.03413792219288503</v>
       </c>
       <c r="Q87" s="5" t="n">
         <v>45</v>
@@ -6080,19 +6080,19 @@
         <v>38858</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>28201</v>
+        <v>27663</v>
       </c>
       <c r="T87" s="5" t="n">
-        <v>54167</v>
+        <v>52338</v>
       </c>
       <c r="U87" s="6" t="n">
         <v>0.02457008073969054</v>
       </c>
       <c r="V87" s="6" t="n">
-        <v>0.01783173347737696</v>
+        <v>0.01749165698056041</v>
       </c>
       <c r="W87" s="6" t="n">
-        <v>0.03425003147641147</v>
+        <v>0.03309352402270874</v>
       </c>
     </row>
     <row r="88">
@@ -6109,19 +6109,19 @@
         <v>479572</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>451293</v>
+        <v>450606</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>508344</v>
+        <v>506345</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>0.6144551979742549</v>
+        <v>0.614455197974255</v>
       </c>
       <c r="H88" s="6" t="n">
-        <v>0.5782228059791754</v>
+        <v>0.5773425156932761</v>
       </c>
       <c r="I88" s="6" t="n">
-        <v>0.6513202401945435</v>
+        <v>0.648758945891358</v>
       </c>
       <c r="J88" s="5" t="n">
         <v>627</v>
@@ -6130,19 +6130,19 @@
         <v>494518</v>
       </c>
       <c r="L88" s="5" t="n">
-        <v>468901</v>
+        <v>466909</v>
       </c>
       <c r="M88" s="5" t="n">
-        <v>520251</v>
+        <v>516410</v>
       </c>
       <c r="N88" s="6" t="n">
-        <v>0.6173445852407161</v>
+        <v>0.6173445852407162</v>
       </c>
       <c r="O88" s="6" t="n">
-        <v>0.5853644701955908</v>
+        <v>0.582878047848962</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>0.6494689917110159</v>
+        <v>0.644673004886464</v>
       </c>
       <c r="Q88" s="5" t="n">
         <v>1079</v>
@@ -6151,19 +6151,19 @@
         <v>974090</v>
       </c>
       <c r="S88" s="5" t="n">
-        <v>930376</v>
+        <v>937009</v>
       </c>
       <c r="T88" s="5" t="n">
-        <v>1009552</v>
+        <v>1010025</v>
       </c>
       <c r="U88" s="6" t="n">
         <v>0.6159186706115969</v>
       </c>
       <c r="V88" s="6" t="n">
-        <v>0.5882780098524036</v>
+        <v>0.5924723572472202</v>
       </c>
       <c r="W88" s="6" t="n">
-        <v>0.63834098956687</v>
+        <v>0.6386400384367328</v>
       </c>
     </row>
     <row r="89">
@@ -6180,19 +6180,19 @@
         <v>106478</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>89233</v>
+        <v>88886</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>129398</v>
+        <v>129219</v>
       </c>
       <c r="G89" s="6" t="n">
         <v>0.1364256959441282</v>
       </c>
       <c r="H89" s="6" t="n">
-        <v>0.1143298802019811</v>
+        <v>0.1138853873138755</v>
       </c>
       <c r="I89" s="6" t="n">
-        <v>0.1657923474235127</v>
+        <v>0.1655629311043901</v>
       </c>
       <c r="J89" s="5" t="n">
         <v>136</v>
@@ -6201,19 +6201,19 @@
         <v>99958</v>
       </c>
       <c r="L89" s="5" t="n">
-        <v>85621</v>
+        <v>85379</v>
       </c>
       <c r="M89" s="5" t="n">
-        <v>118527</v>
+        <v>117556</v>
       </c>
       <c r="N89" s="6" t="n">
         <v>0.1247856783689125</v>
       </c>
       <c r="O89" s="6" t="n">
-        <v>0.1068867041215136</v>
+        <v>0.1065852533631184</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>0.1479658703092677</v>
+        <v>0.1467534703696884</v>
       </c>
       <c r="Q89" s="5" t="n">
         <v>241</v>
@@ -6222,19 +6222,19 @@
         <v>206436</v>
       </c>
       <c r="S89" s="5" t="n">
-        <v>184185</v>
+        <v>181677</v>
       </c>
       <c r="T89" s="5" t="n">
-        <v>234681</v>
+        <v>232043</v>
       </c>
       <c r="U89" s="6" t="n">
         <v>0.1305300351522222</v>
       </c>
       <c r="V89" s="6" t="n">
-        <v>0.1164601864418026</v>
+        <v>0.1148747230672559</v>
       </c>
       <c r="W89" s="6" t="n">
-        <v>0.1483889503642565</v>
+        <v>0.1467214017722305</v>
       </c>
     </row>
     <row r="90">
@@ -6251,19 +6251,19 @@
         <v>203633</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>180326</v>
+        <v>179505</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>231405</v>
+        <v>230391</v>
       </c>
       <c r="G90" s="6" t="n">
         <v>0.2609068653876901</v>
       </c>
       <c r="H90" s="6" t="n">
-        <v>0.2310445012047158</v>
+        <v>0.2299923062144852</v>
       </c>
       <c r="I90" s="6" t="n">
-        <v>0.2964891824225455</v>
+        <v>0.2951902692136615</v>
       </c>
       <c r="J90" s="5" t="n">
         <v>286</v>
@@ -6272,19 +6272,19 @@
         <v>215776</v>
       </c>
       <c r="L90" s="5" t="n">
-        <v>193266</v>
+        <v>193715</v>
       </c>
       <c r="M90" s="5" t="n">
-        <v>240278</v>
+        <v>238035</v>
       </c>
       <c r="N90" s="6" t="n">
         <v>0.2693693915077837</v>
       </c>
       <c r="O90" s="6" t="n">
-        <v>0.2412681350604385</v>
+        <v>0.241828956965493</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>0.2999573842437307</v>
+        <v>0.2971566998840972</v>
       </c>
       <c r="Q90" s="5" t="n">
         <v>494</v>
@@ -6293,19 +6293,19 @@
         <v>419409</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>386328</v>
+        <v>385198</v>
       </c>
       <c r="T90" s="5" t="n">
-        <v>452287</v>
+        <v>450969</v>
       </c>
       <c r="U90" s="6" t="n">
-        <v>0.2651931289714279</v>
+        <v>0.265193128971428</v>
       </c>
       <c r="V90" s="6" t="n">
-        <v>0.2442755277381725</v>
+        <v>0.2435613125547876</v>
       </c>
       <c r="W90" s="6" t="n">
-        <v>0.2859818836217765</v>
+        <v>0.2851484279825316</v>
       </c>
     </row>
     <row r="91">
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>5796</v>
+        <v>5782</v>
       </c>
       <c r="G91" s="6" t="n">
         <v>0.001462757408462454</v>
@@ -6334,7 +6334,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="6" t="n">
-        <v>0.007425598775382456</v>
+        <v>0.007408025243456993</v>
       </c>
       <c r="J91" s="5" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="T91" s="5" t="n">
-        <v>5790</v>
+        <v>6272</v>
       </c>
       <c r="U91" s="6" t="n">
         <v>0.0007218718002220944</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="W91" s="6" t="n">
-        <v>0.003661114814706572</v>
+        <v>0.003965494646563708</v>
       </c>
     </row>
     <row r="92">
@@ -6389,19 +6389,19 @@
         <v>65398</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>49862</v>
+        <v>49346</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>87141</v>
+        <v>85513</v>
       </c>
       <c r="G92" s="6" t="n">
         <v>0.01911754161714951</v>
       </c>
       <c r="H92" s="6" t="n">
-        <v>0.01457590103365021</v>
+        <v>0.01442526973404322</v>
       </c>
       <c r="I92" s="6" t="n">
-        <v>0.02547367789169946</v>
+        <v>0.02499793997470616</v>
       </c>
       <c r="J92" s="5" t="n">
         <v>92</v>
@@ -6410,19 +6410,19 @@
         <v>84155</v>
       </c>
       <c r="L92" s="5" t="n">
-        <v>65764</v>
+        <v>67093</v>
       </c>
       <c r="M92" s="5" t="n">
-        <v>104830</v>
+        <v>106667</v>
       </c>
       <c r="N92" s="6" t="n">
         <v>0.02338248475789028</v>
       </c>
       <c r="O92" s="6" t="n">
-        <v>0.01827250849051532</v>
+        <v>0.01864190778531208</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>0.0291271770989474</v>
+        <v>0.02963746321991267</v>
       </c>
       <c r="Q92" s="5" t="n">
         <v>147</v>
@@ -6431,19 +6431,19 @@
         <v>149552</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>123575</v>
+        <v>127926</v>
       </c>
       <c r="T92" s="5" t="n">
-        <v>177688</v>
+        <v>178457</v>
       </c>
       <c r="U92" s="6" t="n">
         <v>0.02130415630178426</v>
       </c>
       <c r="V92" s="6" t="n">
-        <v>0.01760365725130402</v>
+        <v>0.01822347946997742</v>
       </c>
       <c r="W92" s="6" t="n">
-        <v>0.02531208114483181</v>
+        <v>0.02542161993336447</v>
       </c>
     </row>
     <row r="93">
@@ -6460,19 +6460,19 @@
         <v>13226</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>7130</v>
+        <v>7037</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>23422</v>
+        <v>22537</v>
       </c>
       <c r="G93" s="6" t="n">
         <v>0.003866352867666983</v>
       </c>
       <c r="H93" s="6" t="n">
-        <v>0.002084188461106148</v>
+        <v>0.002057085500931483</v>
       </c>
       <c r="I93" s="6" t="n">
-        <v>0.006846825042746454</v>
+        <v>0.006588243724716692</v>
       </c>
       <c r="J93" s="5" t="n">
         <v>11</v>
@@ -6481,19 +6481,19 @@
         <v>8038</v>
       </c>
       <c r="L93" s="5" t="n">
-        <v>4299</v>
+        <v>4158</v>
       </c>
       <c r="M93" s="5" t="n">
-        <v>14185</v>
+        <v>13868</v>
       </c>
       <c r="N93" s="6" t="n">
         <v>0.002233402369124158</v>
       </c>
       <c r="O93" s="6" t="n">
-        <v>0.001194431393921817</v>
+        <v>0.001155389794348578</v>
       </c>
       <c r="P93" s="6" t="n">
-        <v>0.003941379044820432</v>
+        <v>0.003853195969573456</v>
       </c>
       <c r="Q93" s="5" t="n">
         <v>22</v>
@@ -6502,19 +6502,19 @@
         <v>21264</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>13728</v>
+        <v>13642</v>
       </c>
       <c r="T93" s="5" t="n">
-        <v>32821</v>
+        <v>33008</v>
       </c>
       <c r="U93" s="6" t="n">
-        <v>0.003029147441576541</v>
+        <v>0.00302914744157654</v>
       </c>
       <c r="V93" s="6" t="n">
-        <v>0.001955659370665017</v>
+        <v>0.001943301897268884</v>
       </c>
       <c r="W93" s="6" t="n">
-        <v>0.004675488615926822</v>
+        <v>0.004702060773577032</v>
       </c>
     </row>
     <row r="94">
@@ -6544,19 +6544,19 @@
         <v>3439</v>
       </c>
       <c r="L94" s="5" t="n">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M94" s="5" t="n">
-        <v>12230</v>
+        <v>12389</v>
       </c>
       <c r="N94" s="6" t="n">
         <v>0.0009555433543821508</v>
       </c>
       <c r="O94" s="6" t="n">
-        <v>0.0001712386101113944</v>
+        <v>0.0001705777113500817</v>
       </c>
       <c r="P94" s="6" t="n">
-        <v>0.003398214629004933</v>
+        <v>0.003442193222501711</v>
       </c>
       <c r="Q94" s="5" t="n">
         <v>3</v>
@@ -6565,19 +6565,19 @@
         <v>3439</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="T94" s="5" t="n">
-        <v>11914</v>
+        <v>10010</v>
       </c>
       <c r="U94" s="6" t="n">
-        <v>0.000489902224144132</v>
+        <v>0.0004899022241441319</v>
       </c>
       <c r="V94" s="6" t="n">
-        <v>8.719707776478032e-05</v>
+        <v>8.77338909300696e-05</v>
       </c>
       <c r="W94" s="6" t="n">
-        <v>0.001697223171638213</v>
+        <v>0.001425892811671259</v>
       </c>
     </row>
     <row r="95">
@@ -6594,19 +6594,19 @@
         <v>24371</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>13909</v>
+        <v>13698</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>40518</v>
+        <v>39626</v>
       </c>
       <c r="G95" s="6" t="n">
         <v>0.007124351834016576</v>
       </c>
       <c r="H95" s="6" t="n">
-        <v>0.004065939375628437</v>
+        <v>0.004004426344114571</v>
       </c>
       <c r="I95" s="6" t="n">
-        <v>0.0118445205605175</v>
+        <v>0.01158365135239245</v>
       </c>
       <c r="J95" s="5" t="n">
         <v>24</v>
@@ -6615,19 +6615,19 @@
         <v>17734</v>
       </c>
       <c r="L95" s="5" t="n">
-        <v>11446</v>
+        <v>11743</v>
       </c>
       <c r="M95" s="5" t="n">
-        <v>26832</v>
+        <v>27586</v>
       </c>
       <c r="N95" s="6" t="n">
         <v>0.004927289004753822</v>
       </c>
       <c r="O95" s="6" t="n">
-        <v>0.003180237391423969</v>
+        <v>0.003262690787624728</v>
       </c>
       <c r="P95" s="6" t="n">
-        <v>0.007455171119443472</v>
+        <v>0.007664771319896735</v>
       </c>
       <c r="Q95" s="5" t="n">
         <v>42</v>
@@ -6636,19 +6636,19 @@
         <v>42105</v>
       </c>
       <c r="S95" s="5" t="n">
-        <v>31320</v>
+        <v>31004</v>
       </c>
       <c r="T95" s="5" t="n">
-        <v>63114</v>
+        <v>61115</v>
       </c>
       <c r="U95" s="6" t="n">
-        <v>0.005997928881354021</v>
+        <v>0.005997928881354023</v>
       </c>
       <c r="V95" s="6" t="n">
-        <v>0.00446156238639566</v>
+        <v>0.004416577831984368</v>
       </c>
       <c r="W95" s="6" t="n">
-        <v>0.008990811360346147</v>
+        <v>0.008705967286814985</v>
       </c>
     </row>
     <row r="96">
@@ -6668,16 +6668,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>7191</v>
+        <v>6043</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>0.0003302160826526657</v>
+        <v>0.0003302160826526656</v>
       </c>
       <c r="H96" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I96" s="6" t="n">
-        <v>0.002102077747275696</v>
+        <v>0.001766618969194148</v>
       </c>
       <c r="J96" s="5" t="n">
         <v>6</v>
@@ -6686,19 +6686,19 @@
         <v>4893</v>
       </c>
       <c r="L96" s="5" t="n">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="M96" s="5" t="n">
-        <v>10984</v>
+        <v>10414</v>
       </c>
       <c r="N96" s="6" t="n">
         <v>0.001359542427719608</v>
       </c>
       <c r="O96" s="6" t="n">
-        <v>0.0004893251472840452</v>
+        <v>0.0004883747717546762</v>
       </c>
       <c r="P96" s="6" t="n">
-        <v>0.003051778944891751</v>
+        <v>0.002893500804455585</v>
       </c>
       <c r="Q96" s="5" t="n">
         <v>7</v>
@@ -6707,19 +6707,19 @@
         <v>6023</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>2733</v>
+        <v>2557</v>
       </c>
       <c r="T96" s="5" t="n">
-        <v>12994</v>
+        <v>11534</v>
       </c>
       <c r="U96" s="6" t="n">
-        <v>0.0008579464713428821</v>
+        <v>0.000857946471342882</v>
       </c>
       <c r="V96" s="6" t="n">
-        <v>0.0003893616218844799</v>
+        <v>0.0003642465105871617</v>
       </c>
       <c r="W96" s="6" t="n">
-        <v>0.001850978534502996</v>
+        <v>0.001643018282216821</v>
       </c>
     </row>
     <row r="97">
@@ -6736,19 +6736,19 @@
         <v>34742</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>24244</v>
+        <v>23005</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>48773</v>
+        <v>48279</v>
       </c>
       <c r="G97" s="6" t="n">
         <v>0.01015593041174568</v>
       </c>
       <c r="H97" s="6" t="n">
-        <v>0.007087312751458907</v>
+        <v>0.006724891717042139</v>
       </c>
       <c r="I97" s="6" t="n">
-        <v>0.01425767175296438</v>
+        <v>0.01411315831301202</v>
       </c>
       <c r="J97" s="5" t="n">
         <v>33</v>
@@ -6757,19 +6757,19 @@
         <v>25499</v>
       </c>
       <c r="L97" s="5" t="n">
-        <v>17860</v>
+        <v>18299</v>
       </c>
       <c r="M97" s="5" t="n">
-        <v>35862</v>
+        <v>35461</v>
       </c>
       <c r="N97" s="6" t="n">
         <v>0.007084954133204566</v>
       </c>
       <c r="O97" s="6" t="n">
-        <v>0.004962320552897461</v>
+        <v>0.005084450588077853</v>
       </c>
       <c r="P97" s="6" t="n">
-        <v>0.009964351232463446</v>
+        <v>0.009852804371628722</v>
       </c>
       <c r="Q97" s="5" t="n">
         <v>64</v>
@@ -6778,19 +6778,19 @@
         <v>60241</v>
       </c>
       <c r="S97" s="5" t="n">
-        <v>47197</v>
+        <v>46895</v>
       </c>
       <c r="T97" s="5" t="n">
-        <v>76304</v>
+        <v>77583</v>
       </c>
       <c r="U97" s="6" t="n">
         <v>0.008581456472649584</v>
       </c>
       <c r="V97" s="6" t="n">
-        <v>0.006723313001067988</v>
+        <v>0.006680283695945554</v>
       </c>
       <c r="W97" s="6" t="n">
-        <v>0.01086969514719655</v>
+        <v>0.01105191174853041</v>
       </c>
     </row>
     <row r="98">
@@ -6807,19 +6807,19 @@
         <v>46908</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>35221</v>
+        <v>32448</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>61914</v>
+        <v>62577</v>
       </c>
       <c r="G98" s="6" t="n">
         <v>0.01371243767521485</v>
       </c>
       <c r="H98" s="6" t="n">
-        <v>0.01029605918281001</v>
+        <v>0.009485435034111383</v>
       </c>
       <c r="I98" s="6" t="n">
-        <v>0.01809907695909347</v>
+        <v>0.01829296638874374</v>
       </c>
       <c r="J98" s="5" t="n">
         <v>60</v>
@@ -6828,19 +6828,19 @@
         <v>44505</v>
       </c>
       <c r="L98" s="5" t="n">
-        <v>33829</v>
+        <v>34651</v>
       </c>
       <c r="M98" s="5" t="n">
-        <v>56969</v>
+        <v>57490</v>
       </c>
       <c r="N98" s="6" t="n">
         <v>0.01236582600134845</v>
       </c>
       <c r="O98" s="6" t="n">
-        <v>0.009399396646633739</v>
+        <v>0.00962772815988047</v>
       </c>
       <c r="P98" s="6" t="n">
-        <v>0.01582886406084231</v>
+        <v>0.01597354638539947</v>
       </c>
       <c r="Q98" s="5" t="n">
         <v>106</v>
@@ -6849,19 +6849,19 @@
         <v>91413</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>73945</v>
+        <v>74594</v>
       </c>
       <c r="T98" s="5" t="n">
-        <v>112445</v>
+        <v>110657</v>
       </c>
       <c r="U98" s="6" t="n">
         <v>0.0130220367100884</v>
       </c>
       <c r="V98" s="6" t="n">
-        <v>0.01053367296108176</v>
+        <v>0.01062617340533114</v>
       </c>
       <c r="W98" s="6" t="n">
-        <v>0.01601811476967736</v>
+        <v>0.01576333169350707</v>
       </c>
     </row>
     <row r="99">
@@ -6878,19 +6878,19 @@
         <v>2939631</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>2891002</v>
+        <v>2894961</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>2983022</v>
+        <v>2984639</v>
       </c>
       <c r="G99" s="6" t="n">
-        <v>0.8593354673951267</v>
+        <v>0.8593354673951266</v>
       </c>
       <c r="H99" s="6" t="n">
-        <v>0.8451197512888374</v>
+        <v>0.8462770484932072</v>
       </c>
       <c r="I99" s="6" t="n">
-        <v>0.8720197373268259</v>
+        <v>0.872492599537824</v>
       </c>
       <c r="J99" s="5" t="n">
         <v>4523</v>
@@ -6899,19 +6899,19 @@
         <v>3080217</v>
       </c>
       <c r="L99" s="5" t="n">
-        <v>3040991</v>
+        <v>3039189</v>
       </c>
       <c r="M99" s="5" t="n">
-        <v>3121203</v>
+        <v>3116337</v>
       </c>
       <c r="N99" s="6" t="n">
         <v>0.8558409473021453</v>
       </c>
       <c r="O99" s="6" t="n">
-        <v>0.8449420801510801</v>
+        <v>0.844441300176948</v>
       </c>
       <c r="P99" s="6" t="n">
-        <v>0.8672288956892311</v>
+        <v>0.8658769951481952</v>
       </c>
       <c r="Q99" s="5" t="n">
         <v>7370</v>
@@ -6920,19 +6920,19 @@
         <v>6019848</v>
       </c>
       <c r="S99" s="5" t="n">
-        <v>5958263</v>
+        <v>5961091</v>
       </c>
       <c r="T99" s="5" t="n">
-        <v>6074929</v>
+        <v>6074484</v>
       </c>
       <c r="U99" s="6" t="n">
-        <v>0.8575438446937425</v>
+        <v>0.8575438446937423</v>
       </c>
       <c r="V99" s="6" t="n">
-        <v>0.8487709552366904</v>
+        <v>0.849173706738533</v>
       </c>
       <c r="W99" s="6" t="n">
-        <v>0.8653903025864709</v>
+        <v>0.8653268516550829</v>
       </c>
     </row>
     <row r="100">
@@ -6949,19 +6949,19 @@
         <v>157607</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>132713</v>
+        <v>131453</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>189081</v>
+        <v>187554</v>
       </c>
       <c r="G100" s="6" t="n">
         <v>0.0460728870369437</v>
       </c>
       <c r="H100" s="6" t="n">
-        <v>0.03879561785568712</v>
+        <v>0.03842748082249369</v>
       </c>
       <c r="I100" s="6" t="n">
-        <v>0.05527353771560223</v>
+        <v>0.05482717678913378</v>
       </c>
       <c r="J100" s="5" t="n">
         <v>194</v>
@@ -6970,19 +6970,19 @@
         <v>144951</v>
       </c>
       <c r="L100" s="5" t="n">
-        <v>123942</v>
+        <v>124979</v>
       </c>
       <c r="M100" s="5" t="n">
-        <v>169166</v>
+        <v>167566</v>
       </c>
       <c r="N100" s="6" t="n">
-        <v>0.04027471159105582</v>
+        <v>0.04027471159105583</v>
       </c>
       <c r="O100" s="6" t="n">
-        <v>0.03443744983214728</v>
+        <v>0.03472556210716971</v>
       </c>
       <c r="P100" s="6" t="n">
-        <v>0.0470028741907164</v>
+        <v>0.04655824207719882</v>
       </c>
       <c r="Q100" s="5" t="n">
         <v>334</v>
@@ -6991,19 +6991,19 @@
         <v>302558</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>272434</v>
+        <v>263086</v>
       </c>
       <c r="T100" s="5" t="n">
-        <v>341162</v>
+        <v>338392</v>
       </c>
       <c r="U100" s="6" t="n">
-        <v>0.04310019193745756</v>
+        <v>0.04310019193745755</v>
       </c>
       <c r="V100" s="6" t="n">
-        <v>0.0388090069671254</v>
+        <v>0.03747732669346725</v>
       </c>
       <c r="W100" s="6" t="n">
-        <v>0.0485995264336315</v>
+        <v>0.04820493794704726</v>
       </c>
     </row>
     <row r="101">
@@ -7020,19 +7020,19 @@
         <v>293689</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>259175</v>
+        <v>258219</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>328627</v>
+        <v>329367</v>
       </c>
       <c r="G101" s="6" t="n">
-        <v>0.08585336246500291</v>
+        <v>0.0858533624650029</v>
       </c>
       <c r="H101" s="6" t="n">
-        <v>0.07576401539497515</v>
+        <v>0.07548441360341041</v>
       </c>
       <c r="I101" s="6" t="n">
-        <v>0.0960666752882726</v>
+        <v>0.09628310566691653</v>
       </c>
       <c r="J101" s="5" t="n">
         <v>454</v>
@@ -7041,19 +7041,19 @@
         <v>353753</v>
       </c>
       <c r="L101" s="5" t="n">
-        <v>320576</v>
+        <v>323031</v>
       </c>
       <c r="M101" s="5" t="n">
-        <v>385607</v>
+        <v>391722</v>
       </c>
       <c r="N101" s="6" t="n">
         <v>0.09829051674536146</v>
       </c>
       <c r="O101" s="6" t="n">
-        <v>0.08907230973986807</v>
+        <v>0.08975434944558659</v>
       </c>
       <c r="P101" s="6" t="n">
-        <v>0.1071413780779731</v>
+        <v>0.1088401850974085</v>
       </c>
       <c r="Q101" s="5" t="n">
         <v>740</v>
@@ -7062,19 +7062,19 @@
         <v>647442</v>
       </c>
       <c r="S101" s="5" t="n">
-        <v>602915</v>
+        <v>601077</v>
       </c>
       <c r="T101" s="5" t="n">
-        <v>698961</v>
+        <v>698417</v>
       </c>
       <c r="U101" s="6" t="n">
-        <v>0.09222982829047145</v>
+        <v>0.09222982829047144</v>
       </c>
       <c r="V101" s="6" t="n">
-        <v>0.08588693945878557</v>
+        <v>0.08562504356242095</v>
       </c>
       <c r="W101" s="6" t="n">
-        <v>0.09956896238115899</v>
+        <v>0.09949136829577607</v>
       </c>
     </row>
     <row r="102">
@@ -7091,19 +7091,19 @@
         <v>18745</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>9967</v>
+        <v>9862</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>36833</v>
+        <v>34317</v>
       </c>
       <c r="G102" s="6" t="n">
         <v>0.005479706770409412</v>
       </c>
       <c r="H102" s="6" t="n">
-        <v>0.002913491716210268</v>
+        <v>0.002882793816324616</v>
       </c>
       <c r="I102" s="6" t="n">
-        <v>0.01076721591348537</v>
+        <v>0.01003178369365499</v>
       </c>
       <c r="J102" s="5" t="n">
         <v>15</v>
@@ -7112,19 +7112,19 @@
         <v>12153</v>
       </c>
       <c r="L102" s="5" t="n">
-        <v>6974</v>
+        <v>6673</v>
       </c>
       <c r="M102" s="5" t="n">
-        <v>18948</v>
+        <v>20139</v>
       </c>
       <c r="N102" s="6" t="n">
         <v>0.003376665913822959</v>
       </c>
       <c r="O102" s="6" t="n">
-        <v>0.001937698029030656</v>
+        <v>0.00185423195746135</v>
       </c>
       <c r="P102" s="6" t="n">
-        <v>0.005264734749277471</v>
+        <v>0.00559558751538538</v>
       </c>
       <c r="Q102" s="5" t="n">
         <v>28</v>
@@ -7133,19 +7133,19 @@
         <v>30898</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>20089</v>
+        <v>20789</v>
       </c>
       <c r="T102" s="5" t="n">
-        <v>47376</v>
+        <v>48826</v>
       </c>
       <c r="U102" s="6" t="n">
         <v>0.004401488405556819</v>
       </c>
       <c r="V102" s="6" t="n">
-        <v>0.002861798113651036</v>
+        <v>0.002961418918141244</v>
       </c>
       <c r="W102" s="6" t="n">
-        <v>0.006748796339229289</v>
+        <v>0.00695544207790413</v>
       </c>
     </row>
     <row r="103">
